--- a/Thurputhallu Market Potential Format.xlsx
+++ b/Thurputhallu Market Potential Format.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanjay.aluru\OneDrive - Diebold Nixdorf\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dieboldnixdorf-my.sharepoint.com/personal/sanjay_aluru_dieboldnixdorf_com/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52638C98-6FEE-4B45-A3C9-E72DD60074B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{52638C98-6FEE-4B45-A3C9-E72DD60074B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C48466D8-CEA2-4B03-9130-CB343B079BAE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Market Potential" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Total Farmers List" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Total Farmers List'!$A$6:$K$152</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Total Farmers List'!$A$6:$K$160</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="172">
   <si>
     <t>S.No</t>
   </si>
@@ -524,6 +524,36 @@
   </si>
   <si>
     <t>Date:-05/12/2022</t>
+  </si>
+  <si>
+    <t>Thangeela srinu</t>
+  </si>
+  <si>
+    <t>Belapu konda muthyala rao</t>
+  </si>
+  <si>
+    <t>Adapala Bannu</t>
+  </si>
+  <si>
+    <t>Bellapukonda Chanti</t>
+  </si>
+  <si>
+    <t>Devi</t>
+  </si>
+  <si>
+    <t>Melam Mahesh</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>Melam Akshapathi</t>
+  </si>
+  <si>
+    <t>Venkata raju</t>
+  </si>
+  <si>
+    <t>Koppula peddi raju</t>
   </si>
 </sst>
 </file>
@@ -1108,96 +1138,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1265,6 +1205,96 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1607,7 +1637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
@@ -1646,61 +1676,61 @@
     </row>
     <row r="3" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:12" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="86" t="s">
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="104" t="s">
+      <c r="I4" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="106"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="115"/>
     </row>
     <row r="5" spans="2:12" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="86" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="86" t="s">
+      <c r="G5" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="87"/>
-      <c r="I5" s="89" t="s">
+      <c r="H5" s="112"/>
+      <c r="I5" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="89"/>
-      <c r="K5" s="102" t="s">
+      <c r="J5" s="109"/>
+      <c r="K5" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="103"/>
+      <c r="L5" s="111"/>
     </row>
     <row r="6" spans="2:12" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
       <c r="I6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1715,10 +1745,10 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="96">
+      <c r="B7" s="122">
         <v>1</v>
       </c>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="122" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -1750,8 +1780,8 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="123"/>
       <c r="D8" s="10" t="s">
         <v>44</v>
       </c>
@@ -1781,8 +1811,8 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="123"/>
       <c r="D9" s="10" t="s">
         <v>45</v>
       </c>
@@ -1812,8 +1842,8 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="97"/>
-      <c r="C10" s="97"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
       <c r="D10" s="10" t="s">
         <v>41</v>
       </c>
@@ -1843,8 +1873,8 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="124"/>
       <c r="D11" s="10" t="s">
         <v>47</v>
       </c>
@@ -1874,10 +1904,10 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="90">
-        <v>2</v>
-      </c>
-      <c r="C12" s="90"/>
+      <c r="B12" s="116">
+        <v>2</v>
+      </c>
+      <c r="C12" s="116"/>
       <c r="D12" s="14" t="s">
         <v>40</v>
       </c>
@@ -1907,8 +1937,8 @@
       </c>
     </row>
     <row r="13" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
       <c r="D13" s="14" t="s">
         <v>42</v>
       </c>
@@ -1938,8 +1968,8 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -1951,8 +1981,8 @@
       <c r="L14" s="14"/>
     </row>
     <row r="15" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
@@ -1964,8 +1994,8 @@
       <c r="L15" s="14"/>
     </row>
     <row r="16" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="118"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
@@ -1977,10 +2007,10 @@
       <c r="L16" s="14"/>
     </row>
     <row r="17" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="99">
+      <c r="B17" s="125">
         <v>3</v>
       </c>
-      <c r="C17" s="99"/>
+      <c r="C17" s="125"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -1992,8 +2022,8 @@
       <c r="L17" s="12"/>
     </row>
     <row r="18" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="100"/>
-      <c r="C18" s="100"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="126"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -2005,8 +2035,8 @@
       <c r="L18" s="12"/>
     </row>
     <row r="19" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="100"/>
-      <c r="C19" s="100"/>
+      <c r="B19" s="126"/>
+      <c r="C19" s="126"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -2018,8 +2048,8 @@
       <c r="L19" s="12"/>
     </row>
     <row r="20" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="100"/>
-      <c r="C20" s="100"/>
+      <c r="B20" s="126"/>
+      <c r="C20" s="126"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
@@ -2031,8 +2061,8 @@
       <c r="L20" s="12"/>
     </row>
     <row r="21" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="127"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -2044,10 +2074,10 @@
       <c r="L21" s="12"/>
     </row>
     <row r="22" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="90">
+      <c r="B22" s="116">
         <v>4</v>
       </c>
-      <c r="C22" s="90"/>
+      <c r="C22" s="116"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -2059,8 +2089,8 @@
       <c r="L22" s="14"/>
     </row>
     <row r="23" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="117"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -2072,8 +2102,8 @@
       <c r="L23" s="14"/>
     </row>
     <row r="24" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="91"/>
-      <c r="C24" s="91"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="117"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -2085,8 +2115,8 @@
       <c r="L24" s="14"/>
     </row>
     <row r="25" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="117"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
@@ -2098,8 +2128,8 @@
       <c r="L25" s="14"/>
     </row>
     <row r="26" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="92"/>
-      <c r="C26" s="92"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="118"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
@@ -2111,10 +2141,10 @@
       <c r="L26" s="14"/>
     </row>
     <row r="27" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="93">
+      <c r="B27" s="119">
         <v>5</v>
       </c>
-      <c r="C27" s="93"/>
+      <c r="C27" s="119"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -2126,8 +2156,8 @@
       <c r="L27" s="11"/>
     </row>
     <row r="28" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="94"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="120"/>
+      <c r="C28" s="120"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -2139,8 +2169,8 @@
       <c r="L28" s="11"/>
     </row>
     <row r="29" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="94"/>
-      <c r="C29" s="94"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="120"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -2152,8 +2182,8 @@
       <c r="L29" s="11"/>
     </row>
     <row r="30" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="94"/>
-      <c r="C30" s="94"/>
+      <c r="B30" s="120"/>
+      <c r="C30" s="120"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
@@ -2165,8 +2195,8 @@
       <c r="L30" s="11"/>
     </row>
     <row r="31" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="95"/>
-      <c r="C31" s="95"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="121"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -2215,11 +2245,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:L4"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="B22:B26"/>
@@ -2236,6 +2261,11 @@
     <mergeCell ref="C7:C11"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:L4"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup scale="70" orientation="landscape" r:id="rId1"/>
@@ -2267,10 +2297,10 @@
       <c r="B2" s="15">
         <v>1</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="110"/>
+      <c r="D2" s="131"/>
       <c r="E2" s="1" t="s">
         <v>38</v>
       </c>
@@ -2279,10 +2309,10 @@
       <c r="B3" s="15">
         <v>2</v>
       </c>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="110"/>
+      <c r="D3" s="131"/>
       <c r="E3" s="1" t="s">
         <v>39</v>
       </c>
@@ -2292,10 +2322,10 @@
         <f>B3+1</f>
         <v>3</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="110"/>
+      <c r="D4" s="131"/>
       <c r="E4" s="1" t="s">
         <v>40</v>
       </c>
@@ -2305,10 +2335,10 @@
         <f t="shared" ref="B5:B6" si="0">B4+1</f>
         <v>4</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="110"/>
+      <c r="D5" s="131"/>
       <c r="E5" s="1" t="s">
         <v>43</v>
       </c>
@@ -2318,19 +2348,19 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="110"/>
+      <c r="D6" s="131"/>
       <c r="E6" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="111">
+      <c r="B7" s="132">
         <v>6</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="133" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="16" t="s">
@@ -2341,8 +2371,8 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="111"/>
-      <c r="C8" s="112"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="133"/>
       <c r="D8" s="16" t="s">
         <v>20</v>
       </c>
@@ -2351,13 +2381,13 @@
       </c>
     </row>
     <row r="9" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="109"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="130"/>
     </row>
     <row r="10" spans="2:6" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
@@ -2570,10 +2600,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:K152"/>
+  <dimension ref="A2:K160"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2592,45 +2622,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
       <c r="J2" s="23" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="114"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="115"/>
+      <c r="C4" s="136"/>
       <c r="D4" s="24"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
     </row>
     <row r="5" spans="1:11" s="25" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B5" s="26" t="s">
@@ -2678,13 +2708,13 @@
       <c r="F6" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="121">
+      <c r="G6" s="91">
         <v>10</v>
       </c>
-      <c r="H6" s="121">
+      <c r="H6" s="91">
         <v>6</v>
       </c>
-      <c r="I6" s="121">
+      <c r="I6" s="91">
         <v>0.4</v>
       </c>
       <c r="J6" s="30"/>
@@ -2692,13 +2722,12 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="41">
-        <f>B6+1</f>
-        <v>2</v>
-      </c>
-      <c r="C7" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="118" t="s">
+      <c r="D7" s="88" t="s">
         <v>116</v>
       </c>
       <c r="E7" s="46">
@@ -2713,20 +2742,19 @@
       <c r="H7" s="41">
         <v>5</v>
       </c>
-      <c r="I7" s="122">
+      <c r="I7" s="92">
         <v>0.3</v>
       </c>
       <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="41">
-        <f>B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="119" t="s">
+      <c r="C8" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="118" t="s">
+      <c r="D8" s="88" t="s">
         <v>116</v>
       </c>
       <c r="E8" s="46">
@@ -2735,26 +2763,25 @@
       <c r="F8" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="121">
+      <c r="G8" s="91">
         <v>3</v>
       </c>
-      <c r="H8" s="121">
+      <c r="H8" s="91">
         <v>1</v>
       </c>
-      <c r="I8" s="121">
+      <c r="I8" s="91">
         <v>0.4</v>
       </c>
       <c r="J8" s="34"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="41">
-        <f>B8+1</f>
         <v>4</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="118" t="s">
+      <c r="D9" s="88" t="s">
         <v>116</v>
       </c>
       <c r="E9" s="46">
@@ -2763,26 +2790,25 @@
       <c r="F9" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="121">
-        <v>2</v>
-      </c>
-      <c r="H9" s="121">
-        <v>2</v>
-      </c>
-      <c r="I9" s="121">
+      <c r="G9" s="91">
+        <v>2</v>
+      </c>
+      <c r="H9" s="91">
+        <v>2</v>
+      </c>
+      <c r="I9" s="91">
         <v>0.2</v>
       </c>
       <c r="J9" s="30"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="41">
-        <f>B9+1</f>
         <v>5</v>
       </c>
-      <c r="C10" s="116" t="s">
+      <c r="C10" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="118" t="s">
+      <c r="D10" s="88" t="s">
         <v>116</v>
       </c>
       <c r="E10" s="46">
@@ -2791,26 +2817,25 @@
       <c r="F10" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="121">
+      <c r="G10" s="91">
         <v>3</v>
       </c>
-      <c r="H10" s="121">
-        <v>2</v>
-      </c>
-      <c r="I10" s="121">
+      <c r="H10" s="91">
+        <v>2</v>
+      </c>
+      <c r="I10" s="91">
         <v>0</v>
       </c>
       <c r="J10" s="30"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="41">
-        <f>B10+1</f>
         <v>6</v>
       </c>
       <c r="C11" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="118" t="s">
+      <c r="D11" s="88" t="s">
         <v>116</v>
       </c>
       <c r="E11" s="77">
@@ -2832,13 +2857,12 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="41">
-        <f>B11+1</f>
         <v>7</v>
       </c>
       <c r="C12" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="118" t="s">
+      <c r="D12" s="88" t="s">
         <v>116</v>
       </c>
       <c r="E12" s="77">
@@ -2860,16 +2884,15 @@
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="41">
-        <f>B12+1</f>
         <v>8</v>
       </c>
       <c r="C13" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="D13" s="118" t="s">
+      <c r="D13" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="124">
+      <c r="E13" s="94">
         <v>8847385482</v>
       </c>
       <c r="F13" s="31" t="s">
@@ -2888,13 +2911,12 @@
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="41">
-        <f>B13+1</f>
         <v>9</v>
       </c>
       <c r="C14" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="D14" s="118" t="s">
+      <c r="D14" s="88" t="s">
         <v>116</v>
       </c>
       <c r="E14" s="78">
@@ -2916,13 +2938,12 @@
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="41">
-        <f>B14+1</f>
         <v>10</v>
       </c>
       <c r="C15" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="D15" s="118" t="s">
+      <c r="D15" s="88" t="s">
         <v>116</v>
       </c>
       <c r="E15" s="78">
@@ -2944,13 +2965,12 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="41">
-        <f>B15+1</f>
         <v>11</v>
       </c>
       <c r="C16" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="D16" s="118" t="s">
+      <c r="D16" s="88" t="s">
         <v>116</v>
       </c>
       <c r="E16" s="78">
@@ -2972,13 +2992,12 @@
     </row>
     <row r="17" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="41">
-        <f>B16+1</f>
         <v>12</v>
       </c>
       <c r="C17" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="D17" s="118" t="s">
+      <c r="D17" s="88" t="s">
         <v>116</v>
       </c>
       <c r="E17" s="78">
@@ -2990,7 +3009,7 @@
       <c r="G17" s="65">
         <v>3</v>
       </c>
-      <c r="H17" s="132">
+      <c r="H17" s="102">
         <v>3</v>
       </c>
       <c r="I17" s="57">
@@ -3000,13 +3019,12 @@
     </row>
     <row r="18" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="41">
-        <f>B17+1</f>
         <v>13</v>
       </c>
       <c r="C18" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="118" t="s">
+      <c r="D18" s="88" t="s">
         <v>116</v>
       </c>
       <c r="E18" s="78">
@@ -3028,13 +3046,12 @@
     </row>
     <row r="19" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="41">
-        <f>B18+1</f>
         <v>14</v>
       </c>
       <c r="C19" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="118" t="s">
+      <c r="D19" s="88" t="s">
         <v>116</v>
       </c>
       <c r="E19" s="78">
@@ -3056,10 +3073,9 @@
     </row>
     <row r="20" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="41">
-        <f>B19+1</f>
         <v>15</v>
       </c>
-      <c r="C20" s="116" t="s">
+      <c r="C20" s="86" t="s">
         <v>124</v>
       </c>
       <c r="D20" s="45" t="s">
@@ -3071,48 +3087,46 @@
       <c r="F20" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="121">
+      <c r="G20" s="91">
         <v>5</v>
       </c>
-      <c r="H20" s="121">
+      <c r="H20" s="91">
         <v>1</v>
       </c>
-      <c r="I20" s="121">
+      <c r="I20" s="91">
         <v>0.3</v>
       </c>
       <c r="J20" s="32"/>
     </row>
     <row r="21" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="41">
-        <f>B20+1</f>
         <v>16</v>
       </c>
-      <c r="C21" s="116" t="s">
+      <c r="C21" s="86" t="s">
         <v>125</v>
       </c>
       <c r="D21" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="136">
+      <c r="E21" s="106">
         <v>807442378</v>
       </c>
       <c r="F21" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="121">
+      <c r="G21" s="91">
         <v>3</v>
       </c>
-      <c r="H21" s="121">
-        <v>2</v>
-      </c>
-      <c r="I21" s="121">
+      <c r="H21" s="91">
+        <v>2</v>
+      </c>
+      <c r="I21" s="91">
         <v>0.3</v>
       </c>
       <c r="J21" s="32"/>
     </row>
     <row r="22" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="41">
-        <f>B21+1</f>
         <v>17</v>
       </c>
       <c r="C22" s="48" t="s">
@@ -3121,7 +3135,7 @@
       <c r="D22" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="134">
+      <c r="E22" s="104">
         <v>8106771489</v>
       </c>
       <c r="F22" s="31" t="s">
@@ -3140,7 +3154,6 @@
     </row>
     <row r="23" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="41">
-        <f>B22+1</f>
         <v>18</v>
       </c>
       <c r="C23" s="48" t="s">
@@ -3168,7 +3181,6 @@
     </row>
     <row r="24" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="41">
-        <f>B23+1</f>
         <v>19</v>
       </c>
       <c r="C24" s="48" t="s">
@@ -3196,7 +3208,6 @@
     </row>
     <row r="25" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="41">
-        <f>B24+1</f>
         <v>20</v>
       </c>
       <c r="C25" s="49" t="s">
@@ -3205,7 +3216,7 @@
       <c r="D25" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="124">
+      <c r="E25" s="94">
         <v>8376367773</v>
       </c>
       <c r="F25" s="31" t="s">
@@ -3224,7 +3235,6 @@
     </row>
     <row r="26" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="41">
-        <f>B25+1</f>
         <v>21</v>
       </c>
       <c r="C26" s="49" t="s">
@@ -3236,7 +3246,7 @@
       <c r="E26" s="80">
         <v>9676556148</v>
       </c>
-      <c r="F26" s="122" t="s">
+      <c r="F26" s="92" t="s">
         <v>60</v>
       </c>
       <c r="G26" s="56">
@@ -3252,7 +3262,6 @@
     </row>
     <row r="27" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="41">
-        <f>B26+1</f>
         <v>22</v>
       </c>
       <c r="C27" s="48" t="s">
@@ -3280,7 +3289,6 @@
     </row>
     <row r="28" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="41">
-        <f>B27+1</f>
         <v>23</v>
       </c>
       <c r="C28" s="48" t="s">
@@ -3308,7 +3316,6 @@
     </row>
     <row r="29" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="41">
-        <f>B28+1</f>
         <v>24</v>
       </c>
       <c r="C29" s="48" t="s">
@@ -3336,7 +3343,6 @@
     </row>
     <row r="30" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="41">
-        <f>B29+1</f>
         <v>25</v>
       </c>
       <c r="C30" s="48" t="s">
@@ -3345,7 +3351,7 @@
       <c r="D30" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="127">
+      <c r="E30" s="97">
         <v>9849677251</v>
       </c>
       <c r="F30" s="31" t="s">
@@ -3364,7 +3370,6 @@
     </row>
     <row r="31" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="41">
-        <f>B30+1</f>
         <v>26</v>
       </c>
       <c r="C31" s="48" t="s">
@@ -3392,7 +3397,6 @@
     </row>
     <row r="32" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="41">
-        <f>B31+1</f>
         <v>27</v>
       </c>
       <c r="C32" s="49" t="s">
@@ -3420,7 +3424,6 @@
     </row>
     <row r="33" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="41">
-        <f>B32+1</f>
         <v>28</v>
       </c>
       <c r="C33" s="71" t="s">
@@ -3448,7 +3451,6 @@
     </row>
     <row r="34" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="41">
-        <f>B33+1</f>
         <v>29</v>
       </c>
       <c r="C34" s="48" t="s">
@@ -3476,7 +3478,6 @@
     </row>
     <row r="35" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="41">
-        <f>B34+1</f>
         <v>30</v>
       </c>
       <c r="C35" s="49" t="s">
@@ -3504,7 +3505,6 @@
     </row>
     <row r="36" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="41">
-        <f>B35+1</f>
         <v>31</v>
       </c>
       <c r="C36" s="49" t="s">
@@ -3532,7 +3532,6 @@
     </row>
     <row r="37" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="41">
-        <f>B36+1</f>
         <v>32</v>
       </c>
       <c r="C37" s="48" t="s">
@@ -3547,10 +3546,10 @@
       <c r="F37" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="G37" s="135">
+      <c r="G37" s="105">
         <v>4</v>
       </c>
-      <c r="H37" s="133">
+      <c r="H37" s="103">
         <v>4</v>
       </c>
       <c r="I37" s="55">
@@ -3560,7 +3559,6 @@
     </row>
     <row r="38" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="41">
-        <f>B37+1</f>
         <v>33</v>
       </c>
       <c r="C38" s="48" t="s">
@@ -3588,7 +3586,6 @@
     </row>
     <row r="39" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="41">
-        <f>B38+1</f>
         <v>34</v>
       </c>
       <c r="C39" s="48" t="s">
@@ -3616,7 +3613,6 @@
     </row>
     <row r="40" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="41">
-        <f>B39+1</f>
         <v>35</v>
       </c>
       <c r="C40" s="48" t="s">
@@ -3644,10 +3640,9 @@
     </row>
     <row r="41" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="41">
-        <f>B40+1</f>
         <v>36</v>
       </c>
-      <c r="C41" s="116" t="s">
+      <c r="C41" s="86" t="s">
         <v>123</v>
       </c>
       <c r="D41" s="49" t="s">
@@ -3659,23 +3654,22 @@
       <c r="F41" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G41" s="121">
+      <c r="G41" s="91">
         <v>3</v>
       </c>
-      <c r="H41" s="121">
-        <v>2</v>
-      </c>
-      <c r="I41" s="121">
+      <c r="H41" s="91">
+        <v>2</v>
+      </c>
+      <c r="I41" s="91">
         <v>0.4</v>
       </c>
       <c r="J41" s="33"/>
     </row>
     <row r="42" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="41">
-        <f>B41+1</f>
         <v>37</v>
       </c>
-      <c r="C42" s="116" t="s">
+      <c r="C42" s="86" t="s">
         <v>110</v>
       </c>
       <c r="D42" s="49" t="s">
@@ -3687,13 +3681,13 @@
       <c r="F42" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G42" s="121">
-        <v>2</v>
-      </c>
-      <c r="H42" s="121">
-        <v>2</v>
-      </c>
-      <c r="I42" s="121">
+      <c r="G42" s="91">
+        <v>2</v>
+      </c>
+      <c r="H42" s="91">
+        <v>2</v>
+      </c>
+      <c r="I42" s="91">
         <v>0.2</v>
       </c>
       <c r="J42" s="30"/>
@@ -3701,10 +3695,9 @@
     </row>
     <row r="43" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="41">
-        <f>B42+1</f>
         <v>38</v>
       </c>
-      <c r="C43" s="116" t="s">
+      <c r="C43" s="86" t="s">
         <v>111</v>
       </c>
       <c r="D43" s="49" t="s">
@@ -3716,13 +3709,13 @@
       <c r="F43" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G43" s="121">
-        <v>2</v>
-      </c>
-      <c r="H43" s="121">
-        <v>2</v>
-      </c>
-      <c r="I43" s="121">
+      <c r="G43" s="91">
+        <v>2</v>
+      </c>
+      <c r="H43" s="91">
+        <v>2</v>
+      </c>
+      <c r="I43" s="91">
         <v>0.3</v>
       </c>
       <c r="J43" s="30"/>
@@ -3730,10 +3723,9 @@
     </row>
     <row r="44" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="41">
-        <f>B43+1</f>
         <v>39</v>
       </c>
-      <c r="C44" s="116" t="s">
+      <c r="C44" s="86" t="s">
         <v>112</v>
       </c>
       <c r="D44" s="49" t="s">
@@ -3745,13 +3737,13 @@
       <c r="F44" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G44" s="121">
-        <v>2</v>
-      </c>
-      <c r="H44" s="121">
+      <c r="G44" s="91">
+        <v>2</v>
+      </c>
+      <c r="H44" s="91">
         <v>1</v>
       </c>
-      <c r="I44" s="121">
+      <c r="I44" s="91">
         <v>0.2</v>
       </c>
       <c r="J44" s="30"/>
@@ -3759,10 +3751,9 @@
     </row>
     <row r="45" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="41">
-        <f>B44+1</f>
         <v>40</v>
       </c>
-      <c r="C45" s="116" t="s">
+      <c r="C45" s="86" t="s">
         <v>113</v>
       </c>
       <c r="D45" s="49" t="s">
@@ -3774,13 +3765,13 @@
       <c r="F45" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G45" s="121">
+      <c r="G45" s="91">
         <v>3</v>
       </c>
-      <c r="H45" s="121">
-        <v>2</v>
-      </c>
-      <c r="I45" s="121">
+      <c r="H45" s="91">
+        <v>2</v>
+      </c>
+      <c r="I45" s="91">
         <v>0.4</v>
       </c>
       <c r="J45" s="30"/>
@@ -3788,7 +3779,6 @@
     </row>
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="41">
-        <f>B45+1</f>
         <v>41</v>
       </c>
       <c r="C46" s="49" t="s">
@@ -3816,7 +3806,6 @@
     </row>
     <row r="47" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="41">
-        <f>B46+1</f>
         <v>42</v>
       </c>
       <c r="C47" s="49" t="s">
@@ -3844,7 +3833,6 @@
     </row>
     <row r="48" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="41">
-        <f>B47+1</f>
         <v>43</v>
       </c>
       <c r="C48" s="48" t="s">
@@ -3872,7 +3860,6 @@
     </row>
     <row r="49" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="41">
-        <f>B48+1</f>
         <v>44</v>
       </c>
       <c r="C49" s="48" t="s">
@@ -3900,7 +3887,6 @@
     </row>
     <row r="50" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="41">
-        <f>B49+1</f>
         <v>45</v>
       </c>
       <c r="C50" s="51" t="s">
@@ -3928,7 +3914,6 @@
     </row>
     <row r="51" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="41">
-        <f>B50+1</f>
         <v>46</v>
       </c>
       <c r="C51" s="51" t="s">
@@ -3956,7 +3941,6 @@
     </row>
     <row r="52" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="41">
-        <f>B51+1</f>
         <v>47</v>
       </c>
       <c r="C52" s="51" t="s">
@@ -3984,7 +3968,6 @@
     </row>
     <row r="53" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="41">
-        <f>B52+1</f>
         <v>48</v>
       </c>
       <c r="C53" s="51" t="s">
@@ -4012,7 +3995,6 @@
     </row>
     <row r="54" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="41">
-        <f>B53+1</f>
         <v>49</v>
       </c>
       <c r="C54" s="48" t="s">
@@ -4040,7 +4022,6 @@
     </row>
     <row r="55" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="41">
-        <f>B54+1</f>
         <v>50</v>
       </c>
       <c r="C55" s="48" t="s">
@@ -4068,7 +4049,6 @@
     </row>
     <row r="56" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="41">
-        <f>B55+1</f>
         <v>51</v>
       </c>
       <c r="C56" s="49" t="s">
@@ -4083,7 +4063,7 @@
       <c r="F56" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="G56" s="130">
+      <c r="G56" s="100">
         <v>2</v>
       </c>
       <c r="H56" s="60">
@@ -4096,7 +4076,6 @@
     </row>
     <row r="57" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="41">
-        <f>B56+1</f>
         <v>52</v>
       </c>
       <c r="C57" s="49" t="s">
@@ -4124,7 +4103,6 @@
     </row>
     <row r="58" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="41">
-        <f>B57+1</f>
         <v>53</v>
       </c>
       <c r="C58" s="49" t="s">
@@ -4152,10 +4130,9 @@
     </row>
     <row r="59" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="41">
-        <f>B58+1</f>
         <v>54</v>
       </c>
-      <c r="C59" s="116" t="s">
+      <c r="C59" s="86" t="s">
         <v>133</v>
       </c>
       <c r="D59" s="45" t="s">
@@ -4167,57 +4144,55 @@
       <c r="F59" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="G59" s="121">
-        <v>2</v>
-      </c>
-      <c r="H59" s="121">
-        <v>2</v>
-      </c>
-      <c r="I59" s="121">
+      <c r="G59" s="91">
+        <v>2</v>
+      </c>
+      <c r="H59" s="91">
+        <v>2</v>
+      </c>
+      <c r="I59" s="91">
         <v>0.2</v>
       </c>
       <c r="J59" s="32"/>
     </row>
     <row r="60" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="41">
-        <f>B59+1</f>
         <v>55</v>
       </c>
-      <c r="C60" s="116" t="s">
+      <c r="C60" s="86" t="s">
         <v>135</v>
       </c>
       <c r="D60" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="E60" s="125">
+      <c r="E60" s="95">
         <v>9676556649</v>
       </c>
       <c r="F60" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="G60" s="121">
+      <c r="G60" s="91">
         <v>3</v>
       </c>
-      <c r="H60" s="121">
+      <c r="H60" s="91">
         <v>3</v>
       </c>
-      <c r="I60" s="121">
+      <c r="I60" s="91">
         <v>0.4</v>
       </c>
       <c r="J60" s="32"/>
     </row>
     <row r="61" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="41">
-        <f>B60+1</f>
         <v>56</v>
       </c>
-      <c r="C61" s="116" t="s">
+      <c r="C61" s="86" t="s">
         <v>123</v>
       </c>
       <c r="D61" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="E61" s="125">
+      <c r="E61" s="95">
         <v>9182728547</v>
       </c>
       <c r="F61" s="31" t="s">
@@ -4236,94 +4211,90 @@
     </row>
     <row r="62" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="41">
-        <f>B61+1</f>
         <v>57</v>
       </c>
-      <c r="C62" s="116" t="s">
+      <c r="C62" s="86" t="s">
         <v>70</v>
       </c>
       <c r="D62" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="E62" s="125">
+      <c r="E62" s="95">
         <v>7997116871</v>
       </c>
       <c r="F62" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="G62" s="121">
-        <v>2</v>
-      </c>
-      <c r="H62" s="121">
-        <v>2</v>
-      </c>
-      <c r="I62" s="121">
+      <c r="G62" s="91">
+        <v>2</v>
+      </c>
+      <c r="H62" s="91">
+        <v>2</v>
+      </c>
+      <c r="I62" s="91">
         <v>0.2</v>
       </c>
       <c r="J62" s="32"/>
     </row>
     <row r="63" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="41">
-        <f>B62+1</f>
         <v>58</v>
       </c>
-      <c r="C63" s="116" t="s">
+      <c r="C63" s="86" t="s">
         <v>114</v>
       </c>
       <c r="D63" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="E63" s="125">
+      <c r="E63" s="95">
         <v>9346322244</v>
       </c>
       <c r="F63" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="G63" s="121">
+      <c r="G63" s="91">
         <v>4</v>
       </c>
-      <c r="H63" s="121">
-        <v>2</v>
-      </c>
-      <c r="I63" s="121">
+      <c r="H63" s="91">
+        <v>2</v>
+      </c>
+      <c r="I63" s="91">
         <v>0.4</v>
       </c>
       <c r="J63" s="32"/>
     </row>
     <row r="64" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="41">
-        <f>B63+1</f>
         <v>59</v>
       </c>
-      <c r="C64" s="116" t="s">
+      <c r="C64" s="86" t="s">
         <v>126</v>
       </c>
       <c r="D64" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="E64" s="126">
+      <c r="E64" s="96">
         <v>8330924446</v>
       </c>
       <c r="F64" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="G64" s="121">
+      <c r="G64" s="91">
         <v>6</v>
       </c>
-      <c r="H64" s="121">
+      <c r="H64" s="91">
         <v>5</v>
       </c>
-      <c r="I64" s="121">
+      <c r="I64" s="91">
         <v>0.2</v>
       </c>
       <c r="J64" s="32"/>
     </row>
     <row r="65" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="41">
-        <f>B64+1</f>
         <v>60</v>
       </c>
-      <c r="C65" s="123" t="s">
+      <c r="C65" s="93" t="s">
         <v>127</v>
       </c>
       <c r="D65" s="45" t="s">
@@ -4335,135 +4306,130 @@
       <c r="F65" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="G65" s="121">
-        <v>2</v>
-      </c>
-      <c r="H65" s="121">
-        <v>2</v>
-      </c>
-      <c r="I65" s="121">
+      <c r="G65" s="91">
+        <v>2</v>
+      </c>
+      <c r="H65" s="91">
+        <v>2</v>
+      </c>
+      <c r="I65" s="91">
         <v>0.3</v>
       </c>
       <c r="J65" s="32"/>
     </row>
     <row r="66" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="41">
-        <f>B65+1</f>
         <v>61</v>
       </c>
-      <c r="C66" s="116" t="s">
+      <c r="C66" s="86" t="s">
         <v>128</v>
       </c>
       <c r="D66" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="E66" s="126">
+      <c r="E66" s="96">
         <v>9000837637</v>
       </c>
       <c r="F66" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="G66" s="121">
+      <c r="G66" s="91">
         <v>1</v>
       </c>
-      <c r="H66" s="121">
+      <c r="H66" s="91">
         <v>1</v>
       </c>
-      <c r="I66" s="121">
+      <c r="I66" s="91">
         <v>0.2</v>
       </c>
       <c r="J66" s="32"/>
     </row>
     <row r="67" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="41">
-        <f>B66+1</f>
         <v>62</v>
       </c>
-      <c r="C67" s="116" t="s">
+      <c r="C67" s="86" t="s">
         <v>129</v>
       </c>
       <c r="D67" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="E67" s="126">
+      <c r="E67" s="96">
         <v>9502065479</v>
       </c>
       <c r="F67" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="G67" s="121">
+      <c r="G67" s="91">
         <v>1</v>
       </c>
-      <c r="H67" s="121">
+      <c r="H67" s="91">
         <v>1</v>
       </c>
-      <c r="I67" s="121">
+      <c r="I67" s="91">
         <v>0.2</v>
       </c>
       <c r="J67" s="32"/>
     </row>
     <row r="68" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="41">
-        <f>B67+1</f>
         <v>63</v>
       </c>
-      <c r="C68" s="116" t="s">
+      <c r="C68" s="86" t="s">
         <v>130</v>
       </c>
       <c r="D68" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="E68" s="126">
+      <c r="E68" s="96">
         <v>952539339</v>
       </c>
       <c r="F68" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="G68" s="121">
-        <v>2</v>
-      </c>
-      <c r="H68" s="121">
+      <c r="G68" s="91">
+        <v>2</v>
+      </c>
+      <c r="H68" s="91">
         <v>1</v>
       </c>
-      <c r="I68" s="121">
+      <c r="I68" s="91">
         <v>0.3</v>
       </c>
       <c r="J68" s="32"/>
     </row>
     <row r="69" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="41">
-        <f>B68+1</f>
         <v>64</v>
       </c>
-      <c r="C69" s="116" t="s">
+      <c r="C69" s="86" t="s">
         <v>131</v>
       </c>
       <c r="D69" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="E69" s="126">
+      <c r="E69" s="96">
         <v>9704495373</v>
       </c>
       <c r="F69" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="G69" s="121">
+      <c r="G69" s="91">
         <v>4</v>
       </c>
-      <c r="H69" s="121">
+      <c r="H69" s="91">
         <v>3</v>
       </c>
-      <c r="I69" s="121">
+      <c r="I69" s="91">
         <v>0.4</v>
       </c>
       <c r="J69" s="32"/>
     </row>
     <row r="70" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="41">
-        <f>B69+1</f>
         <v>65</v>
       </c>
-      <c r="C70" s="116" t="s">
+      <c r="C70" s="86" t="s">
         <v>96</v>
       </c>
       <c r="D70" s="45" t="s">
@@ -4475,23 +4441,22 @@
       <c r="F70" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="G70" s="121">
+      <c r="G70" s="91">
         <v>8</v>
       </c>
-      <c r="H70" s="121">
+      <c r="H70" s="91">
         <v>4</v>
       </c>
-      <c r="I70" s="121">
+      <c r="I70" s="91">
         <v>1</v>
       </c>
       <c r="J70" s="32"/>
     </row>
     <row r="71" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B71" s="41">
-        <f>B70+1</f>
         <v>66</v>
       </c>
-      <c r="C71" s="116" t="s">
+      <c r="C71" s="86" t="s">
         <v>97</v>
       </c>
       <c r="D71" s="45" t="s">
@@ -4503,23 +4468,22 @@
       <c r="F71" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="G71" s="121">
-        <v>2</v>
-      </c>
-      <c r="H71" s="121">
+      <c r="G71" s="91">
+        <v>2</v>
+      </c>
+      <c r="H71" s="91">
         <v>1</v>
       </c>
-      <c r="I71" s="121">
+      <c r="I71" s="91">
         <v>0.2</v>
       </c>
       <c r="J71" s="32"/>
     </row>
     <row r="72" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B72" s="41">
-        <f>B71+1</f>
         <v>67</v>
       </c>
-      <c r="C72" s="116" t="s">
+      <c r="C72" s="86" t="s">
         <v>132</v>
       </c>
       <c r="D72" s="45" t="s">
@@ -4531,20 +4495,19 @@
       <c r="F72" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="G72" s="121">
+      <c r="G72" s="91">
         <v>1</v>
       </c>
-      <c r="H72" s="121">
+      <c r="H72" s="91">
         <v>1</v>
       </c>
-      <c r="I72" s="121">
+      <c r="I72" s="91">
         <v>0.2</v>
       </c>
       <c r="J72" s="32"/>
     </row>
     <row r="73" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="41">
-        <f>B72+1</f>
         <v>68</v>
       </c>
       <c r="C73" s="48" t="s">
@@ -4572,7 +4535,6 @@
     </row>
     <row r="74" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B74" s="41">
-        <f>B73+1</f>
         <v>69</v>
       </c>
       <c r="C74" s="48" t="s">
@@ -4600,7 +4562,6 @@
     </row>
     <row r="75" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B75" s="41">
-        <f>B74+1</f>
         <v>70</v>
       </c>
       <c r="C75" s="48" t="s">
@@ -4628,7 +4589,6 @@
     </row>
     <row r="76" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B76" s="41">
-        <f>B75+1</f>
         <v>71</v>
       </c>
       <c r="C76" s="71" t="s">
@@ -4656,7 +4616,6 @@
     </row>
     <row r="77" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="41">
-        <f>B76+1</f>
         <v>72</v>
       </c>
       <c r="C77" s="71" t="s">
@@ -4684,7 +4643,6 @@
     </row>
     <row r="78" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B78" s="41">
-        <f>B77+1</f>
         <v>73</v>
       </c>
       <c r="C78" s="48" t="s">
@@ -4712,7 +4670,6 @@
     </row>
     <row r="79" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B79" s="41">
-        <f>B78+1</f>
         <v>74</v>
       </c>
       <c r="C79" s="48" t="s">
@@ -4740,7 +4697,6 @@
     </row>
     <row r="80" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B80" s="41">
-        <f>B79+1</f>
         <v>75</v>
       </c>
       <c r="C80" s="48" t="s">
@@ -4768,7 +4724,6 @@
     </row>
     <row r="81" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="41">
-        <f>B80+1</f>
         <v>76</v>
       </c>
       <c r="C81" s="49" t="s">
@@ -4796,7 +4751,6 @@
     </row>
     <row r="82" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B82" s="41">
-        <f>B81+1</f>
         <v>77</v>
       </c>
       <c r="C82" s="49" t="s">
@@ -4824,7 +4778,6 @@
     </row>
     <row r="83" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B83" s="41">
-        <f>B82+1</f>
         <v>78</v>
       </c>
       <c r="C83" s="48" t="s">
@@ -4852,7 +4805,6 @@
     </row>
     <row r="84" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B84" s="41">
-        <f>B83+1</f>
         <v>79</v>
       </c>
       <c r="C84" s="48" t="s">
@@ -4880,7 +4832,6 @@
     </row>
     <row r="85" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="41">
-        <f>B84+1</f>
         <v>80</v>
       </c>
       <c r="C85" s="48" t="s">
@@ -4908,7 +4859,6 @@
     </row>
     <row r="86" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B86" s="41">
-        <f>B85+1</f>
         <v>81</v>
       </c>
       <c r="C86" s="48" t="s">
@@ -4920,7 +4870,7 @@
       <c r="E86" s="83">
         <v>8074206012</v>
       </c>
-      <c r="F86" s="129" t="s">
+      <c r="F86" s="99" t="s">
         <v>143</v>
       </c>
       <c r="G86" s="62">
@@ -4936,7 +4886,6 @@
     </row>
     <row r="87" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B87" s="41">
-        <f>B86+1</f>
         <v>82</v>
       </c>
       <c r="C87" s="48" t="s">
@@ -4945,7 +4894,7 @@
       <c r="D87" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="E87" s="128">
+      <c r="E87" s="98">
         <v>9640406467</v>
       </c>
       <c r="F87" s="31" t="s">
@@ -4964,7 +4913,6 @@
     </row>
     <row r="88" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B88" s="41">
-        <f>B87+1</f>
         <v>83</v>
       </c>
       <c r="C88" s="48" t="s">
@@ -4991,878 +4939,950 @@
       <c r="J88" s="32"/>
       <c r="K88" s="28"/>
     </row>
-    <row r="89" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B89" s="41">
-        <f>B88+1</f>
         <v>84</v>
       </c>
-      <c r="C89" s="116" t="s">
-        <v>120</v>
-      </c>
-      <c r="D89" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="E89" s="84">
-        <v>9676556649</v>
+      <c r="C89" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="D89" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="E89" s="77">
+        <v>7702264409</v>
       </c>
       <c r="F89" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="G89" s="121">
-        <v>2</v>
-      </c>
-      <c r="H89" s="121">
-        <v>2</v>
-      </c>
-      <c r="I89" s="121">
+        <v>143</v>
+      </c>
+      <c r="G89" s="62">
+        <v>2</v>
+      </c>
+      <c r="H89" s="60">
+        <v>2</v>
+      </c>
+      <c r="I89" s="55">
         <v>0.2</v>
       </c>
-      <c r="J89" s="30"/>
+      <c r="J89" s="32"/>
     </row>
     <row r="90" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B90" s="41">
-        <f>B89+1</f>
         <v>85</v>
       </c>
-      <c r="C90" s="116" t="s">
-        <v>119</v>
-      </c>
-      <c r="D90" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="E90" s="120">
-        <v>9959669154</v>
+      <c r="C90" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="D90" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="E90" s="77">
+        <v>7013437895</v>
       </c>
       <c r="F90" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="G90" s="121">
-        <v>2</v>
-      </c>
-      <c r="H90" s="121">
+        <v>143</v>
+      </c>
+      <c r="G90" s="62">
         <v>1</v>
       </c>
-      <c r="I90" s="121">
+      <c r="H90" s="60">
+        <v>1</v>
+      </c>
+      <c r="I90" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="J90" s="32"/>
+    </row>
+    <row r="91" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="41">
+        <v>86</v>
+      </c>
+      <c r="C91" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="D91" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E91" s="80">
+        <v>8499098366</v>
+      </c>
+      <c r="F91" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="G91" s="72">
+        <v>2</v>
+      </c>
+      <c r="H91" s="60">
+        <v>2</v>
+      </c>
+      <c r="I91" s="55">
         <v>0.2</v>
       </c>
-      <c r="J90" s="30"/>
-    </row>
-    <row r="91" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B91" s="41">
-        <f>B90+1</f>
-        <v>86</v>
-      </c>
-      <c r="C91" s="116" t="s">
-        <v>121</v>
-      </c>
-      <c r="D91" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="E91" s="84">
-        <v>9182728547</v>
-      </c>
-      <c r="F91" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="G91" s="121">
-        <v>2</v>
-      </c>
-      <c r="H91" s="121">
-        <v>1</v>
-      </c>
-      <c r="I91" s="121">
-        <v>0.2</v>
-      </c>
-      <c r="J91" s="30"/>
+      <c r="J91" s="32"/>
     </row>
     <row r="92" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B92" s="41">
-        <f>B91+1</f>
         <v>87</v>
       </c>
-      <c r="C92" s="116" t="s">
-        <v>68</v>
+      <c r="C92" s="49" t="s">
+        <v>165</v>
       </c>
       <c r="D92" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="E92" s="84">
-        <v>7997116871</v>
+        <v>95</v>
+      </c>
+      <c r="E92" s="80">
+        <v>8297881123</v>
       </c>
       <c r="F92" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="G92" s="121">
-        <v>2</v>
-      </c>
-      <c r="H92" s="121">
+        <v>166</v>
+      </c>
+      <c r="G92" s="72">
         <v>1</v>
       </c>
-      <c r="I92" s="121">
-        <v>0.2</v>
-      </c>
-      <c r="J92" s="31"/>
+      <c r="H92" s="60">
+        <v>1</v>
+      </c>
+      <c r="I92" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="J92" s="32"/>
     </row>
     <row r="93" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B93" s="41">
-        <f>B92+1</f>
         <v>88</v>
       </c>
-      <c r="C93" s="116" t="s">
-        <v>122</v>
-      </c>
-      <c r="D93" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="E93" s="84">
-        <v>9346322244</v>
+      <c r="C93" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="D93" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="E93" s="83">
+        <v>9441078686</v>
       </c>
       <c r="F93" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="G93" s="121">
+        <v>168</v>
+      </c>
+      <c r="G93" s="62">
+        <v>2</v>
+      </c>
+      <c r="H93" s="60">
+        <v>1</v>
+      </c>
+      <c r="I93" s="55">
+        <v>0.2</v>
+      </c>
+      <c r="J93" s="32"/>
+    </row>
+    <row r="94" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B94" s="41">
+        <v>89</v>
+      </c>
+      <c r="C94" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="D94" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="E94" s="83">
+        <v>8096477555</v>
+      </c>
+      <c r="F94" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="G94" s="62">
+        <v>2</v>
+      </c>
+      <c r="H94" s="60">
+        <v>1</v>
+      </c>
+      <c r="I94" s="55">
+        <v>0.2</v>
+      </c>
+      <c r="J94" s="32"/>
+    </row>
+    <row r="95" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="41">
+        <v>90</v>
+      </c>
+      <c r="C95" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="D95" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="E95" s="83">
+        <v>9912370866</v>
+      </c>
+      <c r="F95" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="G95" s="62">
+        <v>5</v>
+      </c>
+      <c r="H95" s="60">
         <v>3</v>
       </c>
-      <c r="H93" s="121">
-        <v>2</v>
-      </c>
-      <c r="I93" s="121">
-        <v>0.3</v>
-      </c>
-      <c r="J93" s="31"/>
-    </row>
-    <row r="94" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="41">
-        <f>B93+1</f>
-        <v>89</v>
-      </c>
-      <c r="C94" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="D94" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="E94" s="77">
-        <v>8074898666</v>
-      </c>
-      <c r="F94" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G94" s="63">
-        <v>10</v>
-      </c>
-      <c r="H94" s="70">
-        <v>4</v>
-      </c>
-      <c r="I94" s="56">
-        <v>0.3</v>
-      </c>
-      <c r="J94" s="32"/>
-    </row>
-    <row r="95" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B95" s="41">
-        <f>B94+1</f>
-        <v>90</v>
-      </c>
-      <c r="C95" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="D95" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="E95" s="77">
-        <v>9441640797</v>
-      </c>
-      <c r="F95" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G95" s="63">
-        <v>3</v>
-      </c>
-      <c r="H95" s="60">
-        <v>2</v>
-      </c>
-      <c r="I95" s="56">
-        <v>0.2</v>
+      <c r="I95" s="55">
+        <v>0.4</v>
       </c>
       <c r="J95" s="32"/>
     </row>
     <row r="96" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B96" s="41">
-        <f>B95+1</f>
         <v>91</v>
       </c>
-      <c r="C96" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="D96" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="E96" s="77">
-        <v>6300092499</v>
-      </c>
-      <c r="F96" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G96" s="63">
-        <v>5</v>
+      <c r="C96" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="D96" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="E96" s="83">
+        <v>8074206012</v>
+      </c>
+      <c r="F96" s="99" t="s">
+        <v>168</v>
+      </c>
+      <c r="G96" s="62">
+        <v>2</v>
       </c>
       <c r="H96" s="60">
-        <v>5</v>
-      </c>
-      <c r="I96" s="56">
-        <v>0.3</v>
+        <v>1</v>
+      </c>
+      <c r="I96" s="55">
+        <v>0.2</v>
       </c>
       <c r="J96" s="32"/>
     </row>
-    <row r="97" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="41">
-        <f>B96+1</f>
         <v>92</v>
       </c>
-      <c r="C97" s="50" t="s">
-        <v>59</v>
+      <c r="C97" s="86" t="s">
+        <v>120</v>
       </c>
       <c r="D97" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="E97" s="77">
-        <v>8074898666</v>
+      <c r="E97" s="84">
+        <v>9676556649</v>
       </c>
       <c r="F97" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G97" s="63">
-        <v>2</v>
-      </c>
-      <c r="H97" s="60">
-        <v>1</v>
-      </c>
-      <c r="I97" s="56">
+        <v>49</v>
+      </c>
+      <c r="G97" s="91">
+        <v>2</v>
+      </c>
+      <c r="H97" s="91">
+        <v>2</v>
+      </c>
+      <c r="I97" s="91">
         <v>0.2</v>
       </c>
-      <c r="J97" s="32"/>
-    </row>
-    <row r="98" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J97" s="30"/>
+    </row>
+    <row r="98" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B98" s="41">
-        <f>B97+1</f>
         <v>93</v>
       </c>
-      <c r="C98" s="48" t="s">
-        <v>52</v>
+      <c r="C98" s="86" t="s">
+        <v>119</v>
       </c>
       <c r="D98" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="E98" s="77">
-        <v>9169691199</v>
+      <c r="E98" s="90">
+        <v>9959669154</v>
       </c>
       <c r="F98" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="G98" s="62">
-        <v>2</v>
-      </c>
-      <c r="H98" s="68">
-        <v>3</v>
-      </c>
-      <c r="I98" s="55">
+        <v>49</v>
+      </c>
+      <c r="G98" s="91">
+        <v>2</v>
+      </c>
+      <c r="H98" s="91">
+        <v>1</v>
+      </c>
+      <c r="I98" s="91">
         <v>0.2</v>
       </c>
-      <c r="J98" s="32"/>
-      <c r="K98" s="28"/>
+      <c r="J98" s="30"/>
     </row>
     <row r="99" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B99" s="41">
-        <f>B98+1</f>
         <v>94</v>
       </c>
-      <c r="C99" s="48" t="s">
-        <v>53</v>
+      <c r="C99" s="86" t="s">
+        <v>121</v>
       </c>
       <c r="D99" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="E99" s="77">
-        <v>7013437895</v>
+      <c r="E99" s="84">
+        <v>9182728547</v>
       </c>
       <c r="F99" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="G99" s="62">
-        <v>3</v>
-      </c>
-      <c r="H99" s="60">
+        <v>49</v>
+      </c>
+      <c r="G99" s="91">
+        <v>2</v>
+      </c>
+      <c r="H99" s="91">
         <v>1</v>
       </c>
-      <c r="I99" s="55">
-        <v>0.3</v>
-      </c>
-      <c r="J99" s="32"/>
-      <c r="K99" s="28"/>
+      <c r="I99" s="91">
+        <v>0.2</v>
+      </c>
+      <c r="J99" s="30"/>
     </row>
     <row r="100" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B100" s="41">
-        <f>B99+1</f>
         <v>95</v>
       </c>
-      <c r="C100" s="48" t="s">
-        <v>54</v>
+      <c r="C100" s="86" t="s">
+        <v>68</v>
       </c>
       <c r="D100" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="E100" s="77">
-        <v>9908169018</v>
+      <c r="E100" s="84">
+        <v>7997116871</v>
       </c>
       <c r="F100" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="G100" s="62">
-        <v>5</v>
-      </c>
-      <c r="H100" s="60">
-        <v>3</v>
-      </c>
-      <c r="I100" s="55">
-        <v>0.3</v>
-      </c>
-      <c r="J100" s="32"/>
-      <c r="K100" s="28"/>
+        <v>49</v>
+      </c>
+      <c r="G100" s="91">
+        <v>2</v>
+      </c>
+      <c r="H100" s="91">
+        <v>1</v>
+      </c>
+      <c r="I100" s="91">
+        <v>0.2</v>
+      </c>
+      <c r="J100" s="31"/>
     </row>
     <row r="101" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B101" s="41">
-        <f>B100+1</f>
         <v>96</v>
       </c>
-      <c r="C101" s="48" t="s">
-        <v>55</v>
+      <c r="C101" s="86" t="s">
+        <v>122</v>
       </c>
       <c r="D101" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="E101" s="77">
-        <v>9550729884</v>
+      <c r="E101" s="84">
+        <v>9346322244</v>
       </c>
       <c r="F101" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="G101" s="62">
+        <v>49</v>
+      </c>
+      <c r="G101" s="91">
         <v>3</v>
       </c>
-      <c r="H101" s="68">
-        <v>2</v>
-      </c>
-      <c r="I101" s="55">
+      <c r="H101" s="91">
+        <v>2</v>
+      </c>
+      <c r="I101" s="91">
         <v>0.3</v>
       </c>
-      <c r="J101" s="32"/>
+      <c r="J101" s="31"/>
     </row>
     <row r="102" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="41">
-        <f>B101+1</f>
         <v>97</v>
       </c>
-      <c r="C102" s="48" t="s">
-        <v>149</v>
+      <c r="C102" s="49" t="s">
+        <v>57</v>
       </c>
       <c r="D102" s="49" t="s">
         <v>136</v>
       </c>
       <c r="E102" s="77">
-        <v>8667657669</v>
+        <v>8074898666</v>
       </c>
       <c r="F102" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="G102" s="62">
-        <v>3</v>
-      </c>
-      <c r="H102" s="60">
-        <v>3</v>
-      </c>
-      <c r="I102" s="55">
+        <v>60</v>
+      </c>
+      <c r="G102" s="63">
+        <v>10</v>
+      </c>
+      <c r="H102" s="70">
+        <v>4</v>
+      </c>
+      <c r="I102" s="56">
         <v>0.3</v>
       </c>
       <c r="J102" s="32"/>
     </row>
     <row r="103" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B103" s="41">
-        <f>B102+1</f>
         <v>98</v>
       </c>
-      <c r="C103" s="48" t="s">
-        <v>150</v>
+      <c r="C103" s="50" t="s">
+        <v>58</v>
       </c>
       <c r="D103" s="49" t="s">
         <v>136</v>
       </c>
       <c r="E103" s="77">
-        <v>9793129832</v>
+        <v>9441640797</v>
       </c>
       <c r="F103" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="G103" s="62">
-        <v>5</v>
+        <v>60</v>
+      </c>
+      <c r="G103" s="63">
+        <v>3</v>
       </c>
       <c r="H103" s="60">
-        <v>4</v>
-      </c>
-      <c r="I103" s="55">
-        <v>0.5</v>
+        <v>2</v>
+      </c>
+      <c r="I103" s="56">
+        <v>0.2</v>
       </c>
       <c r="J103" s="32"/>
     </row>
     <row r="104" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B104" s="41">
-        <f>B103+1</f>
         <v>99</v>
       </c>
-      <c r="C104" s="48" t="s">
-        <v>151</v>
+      <c r="C104" s="50" t="s">
+        <v>108</v>
       </c>
       <c r="D104" s="49" t="s">
         <v>136</v>
       </c>
       <c r="E104" s="77">
-        <v>7731991133</v>
+        <v>6300092499</v>
       </c>
       <c r="F104" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="G104" s="62">
+        <v>60</v>
+      </c>
+      <c r="G104" s="63">
         <v>5</v>
       </c>
       <c r="H104" s="60">
         <v>5</v>
       </c>
-      <c r="I104" s="55">
-        <v>0.5</v>
+      <c r="I104" s="56">
+        <v>0.3</v>
       </c>
       <c r="J104" s="32"/>
     </row>
-    <row r="105" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B105" s="41">
-        <f>B104+1</f>
         <v>100</v>
       </c>
-      <c r="C105" s="47" t="s">
-        <v>50</v>
+      <c r="C105" s="50" t="s">
+        <v>59</v>
       </c>
       <c r="D105" s="49" t="s">
         <v>136</v>
       </c>
       <c r="E105" s="77">
-        <v>9553754289</v>
+        <v>8074898666</v>
       </c>
       <c r="F105" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="G105" s="61">
-        <v>3</v>
-      </c>
-      <c r="H105" s="61">
-        <v>3</v>
-      </c>
-      <c r="I105" s="54">
-        <v>0.3</v>
-      </c>
-      <c r="J105" s="33"/>
-      <c r="K105" s="28"/>
-    </row>
-    <row r="106" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="G105" s="63">
+        <v>2</v>
+      </c>
+      <c r="H105" s="60">
+        <v>1</v>
+      </c>
+      <c r="I105" s="56">
+        <v>0.2</v>
+      </c>
+      <c r="J105" s="32"/>
+    </row>
+    <row r="106" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="41">
-        <f>B105+1</f>
         <v>101</v>
       </c>
       <c r="C106" s="48" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="D106" s="49" t="s">
         <v>136</v>
       </c>
       <c r="E106" s="77">
-        <v>9951240457</v>
+        <v>9169691199</v>
       </c>
       <c r="F106" s="31" t="s">
-        <v>143</v>
+        <v>56</v>
       </c>
       <c r="G106" s="62">
+        <v>2</v>
+      </c>
+      <c r="H106" s="68">
         <v>3</v>
       </c>
-      <c r="H106" s="62">
-        <v>3</v>
-      </c>
-      <c r="I106" s="56">
-        <v>0.3</v>
-      </c>
-      <c r="J106" s="33"/>
+      <c r="I106" s="55">
+        <v>0.2</v>
+      </c>
+      <c r="J106" s="32"/>
       <c r="K106" s="28"/>
     </row>
     <row r="107" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="41">
-        <f>B106+1</f>
         <v>102</v>
       </c>
       <c r="C107" s="48" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="D107" s="49" t="s">
         <v>136</v>
       </c>
       <c r="E107" s="77">
-        <v>7702264409</v>
+        <v>7013437895</v>
       </c>
       <c r="F107" s="31" t="s">
-        <v>143</v>
+        <v>56</v>
       </c>
       <c r="G107" s="62">
         <v>3</v>
       </c>
-      <c r="H107" s="62">
-        <v>3</v>
+      <c r="H107" s="60">
+        <v>1</v>
       </c>
       <c r="I107" s="55">
         <v>0.3</v>
       </c>
-      <c r="J107" s="33"/>
+      <c r="J107" s="32"/>
       <c r="K107" s="28"/>
     </row>
     <row r="108" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="41">
-        <f>B107+1</f>
         <v>103</v>
       </c>
       <c r="C108" s="48" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="D108" s="49" t="s">
         <v>136</v>
       </c>
       <c r="E108" s="77">
-        <v>8367657669</v>
+        <v>9908169018</v>
       </c>
       <c r="F108" s="31" t="s">
-        <v>143</v>
+        <v>56</v>
       </c>
       <c r="G108" s="62">
+        <v>5</v>
+      </c>
+      <c r="H108" s="60">
         <v>3</v>
-      </c>
-      <c r="H108" s="62">
-        <v>4</v>
       </c>
       <c r="I108" s="55">
         <v>0.3</v>
       </c>
-      <c r="J108" s="33"/>
+      <c r="J108" s="32"/>
       <c r="K108" s="28"/>
     </row>
-    <row r="109" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B109" s="41">
-        <f>B108+1</f>
         <v>104</v>
       </c>
       <c r="C109" s="48" t="s">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="D109" s="49" t="s">
         <v>136</v>
       </c>
       <c r="E109" s="77">
-        <v>9493129832</v>
+        <v>9550729884</v>
       </c>
       <c r="F109" s="31" t="s">
-        <v>143</v>
+        <v>56</v>
       </c>
       <c r="G109" s="62">
-        <v>2</v>
-      </c>
-      <c r="H109" s="62">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H109" s="68">
+        <v>2</v>
       </c>
       <c r="I109" s="55">
         <v>0.3</v>
       </c>
       <c r="J109" s="32"/>
-      <c r="K109" s="28"/>
-    </row>
-    <row r="110" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="41">
-        <f>B109+1</f>
         <v>105</v>
       </c>
       <c r="C110" s="48" t="s">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="D110" s="49" t="s">
         <v>136</v>
       </c>
       <c r="E110" s="77">
-        <v>7788991133</v>
+        <v>8667657669</v>
       </c>
       <c r="F110" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="G110" s="131">
-        <v>2</v>
-      </c>
-      <c r="H110" s="62">
-        <v>2</v>
+      <c r="G110" s="62">
+        <v>3</v>
+      </c>
+      <c r="H110" s="60">
+        <v>3</v>
       </c>
       <c r="I110" s="55">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="J110" s="32"/>
-      <c r="K110" s="28"/>
     </row>
     <row r="111" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B111" s="41">
-        <f>B110+1</f>
         <v>106</v>
       </c>
-      <c r="C111" s="48"/>
-      <c r="D111" s="49"/>
-      <c r="E111" s="84"/>
-      <c r="F111" s="31"/>
-      <c r="G111" s="62"/>
-      <c r="H111" s="60"/>
-      <c r="I111" s="55"/>
+      <c r="C111" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="D111" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="E111" s="77">
+        <v>9793129832</v>
+      </c>
+      <c r="F111" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="G111" s="62">
+        <v>5</v>
+      </c>
+      <c r="H111" s="60">
+        <v>4</v>
+      </c>
+      <c r="I111" s="55">
+        <v>0.5</v>
+      </c>
       <c r="J111" s="32"/>
     </row>
     <row r="112" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B112" s="41">
-        <f>B111+1</f>
         <v>107</v>
       </c>
-      <c r="C112" s="48"/>
-      <c r="D112" s="49"/>
-      <c r="E112" s="84"/>
-      <c r="F112" s="31"/>
-      <c r="G112" s="62"/>
-      <c r="H112" s="60"/>
-      <c r="I112" s="55"/>
+      <c r="C112" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="D112" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="E112" s="77">
+        <v>7731991133</v>
+      </c>
+      <c r="F112" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="G112" s="62">
+        <v>5</v>
+      </c>
+      <c r="H112" s="60">
+        <v>5</v>
+      </c>
+      <c r="I112" s="55">
+        <v>0.5</v>
+      </c>
       <c r="J112" s="32"/>
     </row>
-    <row r="113" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="41">
-        <f>B112+1</f>
         <v>108</v>
       </c>
-      <c r="C113" s="48"/>
-      <c r="D113" s="49"/>
-      <c r="E113" s="84"/>
-      <c r="F113" s="31"/>
-      <c r="G113" s="62"/>
-      <c r="H113" s="60"/>
-      <c r="I113" s="55"/>
-      <c r="J113" s="32"/>
-    </row>
-    <row r="114" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C113" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D113" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="E113" s="77">
+        <v>9553754289</v>
+      </c>
+      <c r="F113" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="G113" s="61">
+        <v>3</v>
+      </c>
+      <c r="H113" s="61">
+        <v>3</v>
+      </c>
+      <c r="I113" s="54">
+        <v>0.3</v>
+      </c>
+      <c r="J113" s="33"/>
+      <c r="K113" s="28"/>
+    </row>
+    <row r="114" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B114" s="41">
-        <f>B113+1</f>
         <v>109</v>
       </c>
-      <c r="C114" s="48"/>
-      <c r="D114" s="49"/>
-      <c r="E114" s="84"/>
-      <c r="F114" s="31"/>
-      <c r="G114" s="62"/>
-      <c r="H114" s="60"/>
-      <c r="I114" s="55"/>
-      <c r="J114" s="32"/>
-    </row>
-    <row r="115" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C114" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D114" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="E114" s="77">
+        <v>9951240457</v>
+      </c>
+      <c r="F114" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="G114" s="62">
+        <v>3</v>
+      </c>
+      <c r="H114" s="62">
+        <v>3</v>
+      </c>
+      <c r="I114" s="56">
+        <v>0.3</v>
+      </c>
+      <c r="J114" s="33"/>
+      <c r="K114" s="28"/>
+    </row>
+    <row r="115" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B115" s="41">
-        <f>B114+1</f>
         <v>110</v>
       </c>
-      <c r="C115" s="48"/>
-      <c r="D115" s="49"/>
-      <c r="E115" s="84"/>
-      <c r="F115" s="31"/>
-      <c r="G115" s="62"/>
-      <c r="H115" s="60"/>
-      <c r="I115" s="55"/>
-      <c r="J115" s="32"/>
-    </row>
-    <row r="116" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C115" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="D115" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="E115" s="77">
+        <v>7702264409</v>
+      </c>
+      <c r="F115" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="G115" s="62">
+        <v>3</v>
+      </c>
+      <c r="H115" s="62">
+        <v>3</v>
+      </c>
+      <c r="I115" s="55">
+        <v>0.3</v>
+      </c>
+      <c r="J115" s="33"/>
+      <c r="K115" s="28"/>
+    </row>
+    <row r="116" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B116" s="41">
-        <f>B115+1</f>
         <v>111</v>
       </c>
-      <c r="C116" s="51"/>
-      <c r="D116" s="51"/>
-      <c r="E116" s="79"/>
-      <c r="F116" s="31"/>
-      <c r="G116" s="62"/>
-      <c r="H116" s="60"/>
-      <c r="I116" s="55"/>
-      <c r="J116" s="32"/>
-    </row>
-    <row r="117" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C116" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="D116" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="E116" s="77">
+        <v>8367657669</v>
+      </c>
+      <c r="F116" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="G116" s="62">
+        <v>3</v>
+      </c>
+      <c r="H116" s="62">
+        <v>4</v>
+      </c>
+      <c r="I116" s="55">
+        <v>0.3</v>
+      </c>
+      <c r="J116" s="33"/>
+      <c r="K116" s="28"/>
+    </row>
+    <row r="117" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="41">
-        <f>B116+1</f>
         <v>112</v>
       </c>
-      <c r="C117" s="51"/>
-      <c r="D117" s="51"/>
-      <c r="E117" s="79"/>
-      <c r="F117" s="31"/>
-      <c r="G117" s="62"/>
-      <c r="H117" s="60"/>
-      <c r="I117" s="55"/>
+      <c r="C117" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="D117" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="E117" s="77">
+        <v>9493129832</v>
+      </c>
+      <c r="F117" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="G117" s="62">
+        <v>2</v>
+      </c>
+      <c r="H117" s="62">
+        <v>1</v>
+      </c>
+      <c r="I117" s="55">
+        <v>0.3</v>
+      </c>
       <c r="J117" s="32"/>
-    </row>
-    <row r="118" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K117" s="28"/>
+    </row>
+    <row r="118" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B118" s="41">
-        <f>B117+1</f>
         <v>113</v>
       </c>
-      <c r="C118" s="51"/>
-      <c r="D118" s="51"/>
-      <c r="E118" s="79"/>
-      <c r="F118" s="31"/>
-      <c r="G118" s="62"/>
-      <c r="H118" s="60"/>
-      <c r="I118" s="55"/>
+      <c r="C118" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D118" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="E118" s="77">
+        <v>7788991133</v>
+      </c>
+      <c r="F118" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="G118" s="101">
+        <v>2</v>
+      </c>
+      <c r="H118" s="62">
+        <v>2</v>
+      </c>
+      <c r="I118" s="55">
+        <v>0.2</v>
+      </c>
       <c r="J118" s="32"/>
-    </row>
-    <row r="119" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K118" s="28"/>
+    </row>
+    <row r="119" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B119" s="41">
-        <f>B118+1</f>
         <v>114</v>
       </c>
       <c r="C119" s="48"/>
-      <c r="D119" s="51"/>
-      <c r="E119" s="85"/>
+      <c r="D119" s="49"/>
+      <c r="E119" s="84"/>
       <c r="F119" s="31"/>
       <c r="G119" s="62"/>
       <c r="H119" s="60"/>
       <c r="I119" s="55"/>
       <c r="J119" s="32"/>
     </row>
-    <row r="120" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B120" s="41">
-        <f>B119+1</f>
         <v>115</v>
       </c>
       <c r="C120" s="48"/>
-      <c r="D120" s="51"/>
-      <c r="E120" s="85"/>
+      <c r="D120" s="49"/>
+      <c r="E120" s="84"/>
       <c r="F120" s="31"/>
       <c r="G120" s="62"/>
       <c r="H120" s="60"/>
       <c r="I120" s="55"/>
       <c r="J120" s="32"/>
     </row>
-    <row r="121" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="41">
-        <f>B120+1</f>
         <v>116</v>
       </c>
       <c r="C121" s="48"/>
-      <c r="D121" s="51"/>
-      <c r="E121" s="85"/>
+      <c r="D121" s="49"/>
+      <c r="E121" s="84"/>
       <c r="F121" s="31"/>
       <c r="G121" s="62"/>
       <c r="H121" s="60"/>
       <c r="I121" s="55"/>
       <c r="J121" s="32"/>
     </row>
-    <row r="122" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B122" s="41">
-        <f>B121+1</f>
         <v>117</v>
       </c>
       <c r="C122" s="48"/>
-      <c r="D122" s="51"/>
-      <c r="E122" s="85"/>
+      <c r="D122" s="49"/>
+      <c r="E122" s="84"/>
       <c r="F122" s="31"/>
       <c r="G122" s="62"/>
       <c r="H122" s="60"/>
       <c r="I122" s="55"/>
       <c r="J122" s="32"/>
     </row>
-    <row r="123" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B123" s="41">
-        <f>B122+1</f>
         <v>118</v>
       </c>
-      <c r="C123" s="49"/>
+      <c r="C123" s="48"/>
       <c r="D123" s="49"/>
-      <c r="E123" s="77"/>
-      <c r="F123" s="56"/>
-      <c r="G123" s="56"/>
-      <c r="H123" s="56"/>
-      <c r="I123" s="56"/>
+      <c r="E123" s="84"/>
+      <c r="F123" s="31"/>
+      <c r="G123" s="62"/>
+      <c r="H123" s="60"/>
+      <c r="I123" s="55"/>
       <c r="J123" s="32"/>
     </row>
-    <row r="124" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B124" s="41">
-        <f>B123+1</f>
         <v>119</v>
       </c>
-      <c r="C124" s="49"/>
-      <c r="D124" s="49"/>
-      <c r="E124" s="77"/>
-      <c r="F124" s="56"/>
-      <c r="G124" s="56"/>
-      <c r="H124" s="56"/>
-      <c r="I124" s="56"/>
+      <c r="C124" s="51"/>
+      <c r="D124" s="51"/>
+      <c r="E124" s="79"/>
+      <c r="F124" s="31"/>
+      <c r="G124" s="62"/>
+      <c r="H124" s="60"/>
+      <c r="I124" s="55"/>
       <c r="J124" s="32"/>
     </row>
-    <row r="125" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="41">
-        <f>B124+1</f>
         <v>120</v>
       </c>
-      <c r="C125" s="49"/>
-      <c r="D125" s="49"/>
-      <c r="E125" s="77"/>
-      <c r="F125" s="56"/>
-      <c r="G125" s="56"/>
-      <c r="H125" s="56"/>
-      <c r="I125" s="56"/>
+      <c r="C125" s="51"/>
+      <c r="D125" s="51"/>
+      <c r="E125" s="79"/>
+      <c r="F125" s="31"/>
+      <c r="G125" s="62"/>
+      <c r="H125" s="60"/>
+      <c r="I125" s="55"/>
       <c r="J125" s="32"/>
     </row>
-    <row r="126" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B126" s="41">
-        <f>B125+1</f>
         <v>121</v>
       </c>
-      <c r="C126" s="49"/>
-      <c r="D126" s="49"/>
-      <c r="E126" s="77"/>
-      <c r="F126" s="56"/>
-      <c r="G126" s="56"/>
-      <c r="H126" s="56"/>
-      <c r="I126" s="56"/>
+      <c r="C126" s="51"/>
+      <c r="D126" s="51"/>
+      <c r="E126" s="79"/>
+      <c r="F126" s="31"/>
+      <c r="G126" s="62"/>
+      <c r="H126" s="60"/>
+      <c r="I126" s="55"/>
       <c r="J126" s="32"/>
     </row>
-    <row r="127" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B127" s="41">
-        <f>B126+1</f>
         <v>122</v>
       </c>
       <c r="C127" s="48"/>
-      <c r="D127" s="49"/>
+      <c r="D127" s="51"/>
       <c r="E127" s="85"/>
-      <c r="F127" s="56"/>
+      <c r="F127" s="31"/>
       <c r="G127" s="62"/>
       <c r="H127" s="60"/>
       <c r="I127" s="55"/>
       <c r="J127" s="32"/>
     </row>
-    <row r="128" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B128" s="41">
-        <f>B127+1</f>
         <v>123</v>
       </c>
       <c r="C128" s="48"/>
-      <c r="D128" s="49"/>
+      <c r="D128" s="51"/>
       <c r="E128" s="85"/>
-      <c r="F128" s="56"/>
+      <c r="F128" s="31"/>
       <c r="G128" s="62"/>
       <c r="H128" s="60"/>
       <c r="I128" s="55"/>
@@ -5870,12 +5890,11 @@
     </row>
     <row r="129" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="41">
-        <f>B128+1</f>
         <v>124</v>
       </c>
       <c r="C129" s="48"/>
-      <c r="D129" s="49"/>
-      <c r="E129" s="83"/>
+      <c r="D129" s="51"/>
+      <c r="E129" s="85"/>
       <c r="F129" s="31"/>
       <c r="G129" s="62"/>
       <c r="H129" s="60"/>
@@ -5884,12 +5903,11 @@
     </row>
     <row r="130" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B130" s="41">
-        <f>B129+1</f>
         <v>125</v>
       </c>
       <c r="C130" s="48"/>
-      <c r="D130" s="49"/>
-      <c r="E130" s="83"/>
+      <c r="D130" s="51"/>
+      <c r="E130" s="85"/>
       <c r="F130" s="31"/>
       <c r="G130" s="62"/>
       <c r="H130" s="60"/>
@@ -5898,69 +5916,64 @@
     </row>
     <row r="131" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B131" s="41">
-        <f>B130+1</f>
         <v>126</v>
       </c>
-      <c r="C131" s="48"/>
+      <c r="C131" s="49"/>
       <c r="D131" s="49"/>
-      <c r="E131" s="83"/>
-      <c r="F131" s="31"/>
-      <c r="G131" s="62"/>
-      <c r="H131" s="60"/>
-      <c r="I131" s="55"/>
+      <c r="E131" s="77"/>
+      <c r="F131" s="56"/>
+      <c r="G131" s="56"/>
+      <c r="H131" s="56"/>
+      <c r="I131" s="56"/>
       <c r="J131" s="32"/>
     </row>
     <row r="132" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B132" s="41">
-        <f>B131+1</f>
         <v>127</v>
       </c>
-      <c r="C132" s="48"/>
+      <c r="C132" s="49"/>
       <c r="D132" s="49"/>
-      <c r="E132" s="83"/>
-      <c r="F132" s="31"/>
-      <c r="G132" s="62"/>
-      <c r="H132" s="60"/>
-      <c r="I132" s="55"/>
+      <c r="E132" s="77"/>
+      <c r="F132" s="56"/>
+      <c r="G132" s="56"/>
+      <c r="H132" s="56"/>
+      <c r="I132" s="56"/>
       <c r="J132" s="32"/>
     </row>
     <row r="133" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="41">
-        <f>B132+1</f>
         <v>128</v>
       </c>
-      <c r="C133" s="73"/>
-      <c r="D133" s="74"/>
-      <c r="E133" s="81"/>
-      <c r="F133" s="31"/>
-      <c r="G133" s="62"/>
-      <c r="H133" s="60"/>
-      <c r="I133" s="55"/>
+      <c r="C133" s="49"/>
+      <c r="D133" s="49"/>
+      <c r="E133" s="77"/>
+      <c r="F133" s="56"/>
+      <c r="G133" s="56"/>
+      <c r="H133" s="56"/>
+      <c r="I133" s="56"/>
       <c r="J133" s="32"/>
     </row>
     <row r="134" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B134" s="41">
-        <f>B133+1</f>
         <v>129</v>
       </c>
-      <c r="C134" s="42"/>
-      <c r="D134" s="43"/>
-      <c r="E134" s="76"/>
-      <c r="F134" s="31"/>
-      <c r="G134" s="62"/>
-      <c r="H134" s="60"/>
-      <c r="I134" s="55"/>
+      <c r="C134" s="49"/>
+      <c r="D134" s="49"/>
+      <c r="E134" s="77"/>
+      <c r="F134" s="56"/>
+      <c r="G134" s="56"/>
+      <c r="H134" s="56"/>
+      <c r="I134" s="56"/>
       <c r="J134" s="32"/>
     </row>
     <row r="135" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B135" s="41">
-        <f>B134+1</f>
         <v>130</v>
       </c>
-      <c r="C135" s="44"/>
-      <c r="D135" s="45"/>
-      <c r="E135" s="82"/>
-      <c r="F135" s="31"/>
+      <c r="C135" s="48"/>
+      <c r="D135" s="49"/>
+      <c r="E135" s="85"/>
+      <c r="F135" s="56"/>
       <c r="G135" s="62"/>
       <c r="H135" s="60"/>
       <c r="I135" s="55"/>
@@ -5968,13 +5981,12 @@
     </row>
     <row r="136" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B136" s="41">
-        <f>B135+1</f>
         <v>131</v>
       </c>
-      <c r="C136" s="42"/>
-      <c r="D136" s="43"/>
-      <c r="E136" s="76"/>
-      <c r="F136" s="31"/>
+      <c r="C136" s="48"/>
+      <c r="D136" s="49"/>
+      <c r="E136" s="85"/>
+      <c r="F136" s="56"/>
       <c r="G136" s="62"/>
       <c r="H136" s="60"/>
       <c r="I136" s="55"/>
@@ -5982,12 +5994,11 @@
     </row>
     <row r="137" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="41">
-        <f>B136+1</f>
         <v>132</v>
       </c>
-      <c r="C137" s="42"/>
-      <c r="D137" s="43"/>
-      <c r="E137" s="75"/>
+      <c r="C137" s="48"/>
+      <c r="D137" s="49"/>
+      <c r="E137" s="83"/>
       <c r="F137" s="31"/>
       <c r="G137" s="62"/>
       <c r="H137" s="60"/>
@@ -5996,12 +6007,11 @@
     </row>
     <row r="138" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B138" s="41">
-        <f>B137+1</f>
         <v>133</v>
       </c>
-      <c r="C138" s="44"/>
-      <c r="D138" s="45"/>
-      <c r="E138" s="75"/>
+      <c r="C138" s="48"/>
+      <c r="D138" s="49"/>
+      <c r="E138" s="83"/>
       <c r="F138" s="31"/>
       <c r="G138" s="62"/>
       <c r="H138" s="60"/>
@@ -6010,12 +6020,11 @@
     </row>
     <row r="139" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B139" s="41">
-        <f>B138+1</f>
         <v>134</v>
       </c>
-      <c r="C139" s="44"/>
-      <c r="D139" s="45"/>
-      <c r="E139" s="76"/>
+      <c r="C139" s="48"/>
+      <c r="D139" s="49"/>
+      <c r="E139" s="83"/>
       <c r="F139" s="31"/>
       <c r="G139" s="62"/>
       <c r="H139" s="60"/>
@@ -6024,12 +6033,11 @@
     </row>
     <row r="140" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B140" s="41">
-        <f>B139+1</f>
         <v>135</v>
       </c>
-      <c r="C140" s="44"/>
-      <c r="D140" s="45"/>
-      <c r="E140" s="76"/>
+      <c r="C140" s="48"/>
+      <c r="D140" s="49"/>
+      <c r="E140" s="83"/>
       <c r="F140" s="31"/>
       <c r="G140" s="62"/>
       <c r="H140" s="60"/>
@@ -6038,12 +6046,11 @@
     </row>
     <row r="141" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="41">
-        <f>B140+1</f>
         <v>136</v>
       </c>
-      <c r="C141" s="42"/>
-      <c r="D141" s="43"/>
-      <c r="E141" s="82"/>
+      <c r="C141" s="73"/>
+      <c r="D141" s="74"/>
+      <c r="E141" s="81"/>
       <c r="F141" s="31"/>
       <c r="G141" s="62"/>
       <c r="H141" s="60"/>
@@ -6052,7 +6059,6 @@
     </row>
     <row r="142" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B142" s="41">
-        <f>B141+1</f>
         <v>137</v>
       </c>
       <c r="C142" s="42"/>
@@ -6066,12 +6072,11 @@
     </row>
     <row r="143" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B143" s="41">
-        <f>B142+1</f>
         <v>138</v>
       </c>
-      <c r="C143" s="48"/>
-      <c r="D143" s="43"/>
-      <c r="E143" s="83"/>
+      <c r="C143" s="44"/>
+      <c r="D143" s="45"/>
+      <c r="E143" s="82"/>
       <c r="F143" s="31"/>
       <c r="G143" s="62"/>
       <c r="H143" s="60"/>
@@ -6080,12 +6085,11 @@
     </row>
     <row r="144" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B144" s="41">
-        <f>B143+1</f>
         <v>139</v>
       </c>
-      <c r="C144" s="48"/>
+      <c r="C144" s="42"/>
       <c r="D144" s="43"/>
-      <c r="E144" s="83"/>
+      <c r="E144" s="76"/>
       <c r="F144" s="31"/>
       <c r="G144" s="62"/>
       <c r="H144" s="60"/>
@@ -6094,12 +6098,11 @@
     </row>
     <row r="145" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="41">
-        <f>B144+1</f>
         <v>140</v>
       </c>
-      <c r="C145" s="48"/>
+      <c r="C145" s="42"/>
       <c r="D145" s="43"/>
-      <c r="E145" s="83"/>
+      <c r="E145" s="75"/>
       <c r="F145" s="31"/>
       <c r="G145" s="62"/>
       <c r="H145" s="60"/>
@@ -6108,12 +6111,11 @@
     </row>
     <row r="146" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B146" s="41">
-        <f>B145+1</f>
         <v>141</v>
       </c>
-      <c r="C146" s="48"/>
-      <c r="D146" s="43"/>
-      <c r="E146" s="83"/>
+      <c r="C146" s="44"/>
+      <c r="D146" s="45"/>
+      <c r="E146" s="75"/>
       <c r="F146" s="31"/>
       <c r="G146" s="62"/>
       <c r="H146" s="60"/>
@@ -6122,12 +6124,11 @@
     </row>
     <row r="147" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B147" s="41">
-        <f>B146+1</f>
         <v>142</v>
       </c>
-      <c r="C147" s="48"/>
-      <c r="D147" s="43"/>
-      <c r="E147" s="83"/>
+      <c r="C147" s="44"/>
+      <c r="D147" s="45"/>
+      <c r="E147" s="76"/>
       <c r="F147" s="31"/>
       <c r="G147" s="62"/>
       <c r="H147" s="60"/>
@@ -6136,12 +6137,11 @@
     </row>
     <row r="148" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B148" s="41">
-        <f>B147+1</f>
         <v>143</v>
       </c>
-      <c r="C148" s="48"/>
-      <c r="D148" s="43"/>
-      <c r="E148" s="83"/>
+      <c r="C148" s="44"/>
+      <c r="D148" s="45"/>
+      <c r="E148" s="76"/>
       <c r="F148" s="31"/>
       <c r="G148" s="62"/>
       <c r="H148" s="60"/>
@@ -6150,12 +6150,11 @@
     </row>
     <row r="149" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="41">
-        <f>B148+1</f>
         <v>144</v>
       </c>
-      <c r="C149" s="48"/>
+      <c r="C149" s="42"/>
       <c r="D149" s="43"/>
-      <c r="E149" s="83"/>
+      <c r="E149" s="82"/>
       <c r="F149" s="31"/>
       <c r="G149" s="62"/>
       <c r="H149" s="60"/>
@@ -6164,12 +6163,11 @@
     </row>
     <row r="150" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B150" s="41">
-        <f>B149+1</f>
         <v>145</v>
       </c>
-      <c r="C150" s="48"/>
+      <c r="C150" s="42"/>
       <c r="D150" s="43"/>
-      <c r="E150" s="83"/>
+      <c r="E150" s="76"/>
       <c r="F150" s="31"/>
       <c r="G150" s="62"/>
       <c r="H150" s="60"/>
@@ -6178,7 +6176,6 @@
     </row>
     <row r="151" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B151" s="41">
-        <f>B150+1</f>
         <v>146</v>
       </c>
       <c r="C151" s="48"/>
@@ -6190,32 +6187,136 @@
       <c r="I151" s="55"/>
       <c r="J151" s="32"/>
     </row>
-    <row r="152" spans="2:10" s="35" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B152" s="36"/>
-      <c r="C152" s="37" t="s">
+    <row r="152" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B152" s="41">
+        <v>147</v>
+      </c>
+      <c r="C152" s="48"/>
+      <c r="D152" s="43"/>
+      <c r="E152" s="83"/>
+      <c r="F152" s="31"/>
+      <c r="G152" s="62"/>
+      <c r="H152" s="60"/>
+      <c r="I152" s="55"/>
+      <c r="J152" s="32"/>
+    </row>
+    <row r="153" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="41">
+        <v>148</v>
+      </c>
+      <c r="C153" s="48"/>
+      <c r="D153" s="43"/>
+      <c r="E153" s="83"/>
+      <c r="F153" s="31"/>
+      <c r="G153" s="62"/>
+      <c r="H153" s="60"/>
+      <c r="I153" s="55"/>
+      <c r="J153" s="32"/>
+    </row>
+    <row r="154" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B154" s="41">
+        <v>149</v>
+      </c>
+      <c r="C154" s="48"/>
+      <c r="D154" s="43"/>
+      <c r="E154" s="83"/>
+      <c r="F154" s="31"/>
+      <c r="G154" s="62"/>
+      <c r="H154" s="60"/>
+      <c r="I154" s="55"/>
+      <c r="J154" s="32"/>
+    </row>
+    <row r="155" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B155" s="41">
+        <v>150</v>
+      </c>
+      <c r="C155" s="48"/>
+      <c r="D155" s="43"/>
+      <c r="E155" s="83"/>
+      <c r="F155" s="31"/>
+      <c r="G155" s="62"/>
+      <c r="H155" s="60"/>
+      <c r="I155" s="55"/>
+      <c r="J155" s="32"/>
+    </row>
+    <row r="156" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B156" s="41">
+        <v>151</v>
+      </c>
+      <c r="C156" s="48"/>
+      <c r="D156" s="43"/>
+      <c r="E156" s="83"/>
+      <c r="F156" s="31"/>
+      <c r="G156" s="62"/>
+      <c r="H156" s="60"/>
+      <c r="I156" s="55"/>
+      <c r="J156" s="32"/>
+    </row>
+    <row r="157" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="41">
+        <v>152</v>
+      </c>
+      <c r="C157" s="48"/>
+      <c r="D157" s="43"/>
+      <c r="E157" s="83"/>
+      <c r="F157" s="31"/>
+      <c r="G157" s="62"/>
+      <c r="H157" s="60"/>
+      <c r="I157" s="55"/>
+      <c r="J157" s="32"/>
+    </row>
+    <row r="158" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B158" s="41">
+        <v>153</v>
+      </c>
+      <c r="C158" s="48"/>
+      <c r="D158" s="43"/>
+      <c r="E158" s="83"/>
+      <c r="F158" s="31"/>
+      <c r="G158" s="62"/>
+      <c r="H158" s="60"/>
+      <c r="I158" s="55"/>
+      <c r="J158" s="32"/>
+    </row>
+    <row r="159" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B159" s="41">
+        <v>154</v>
+      </c>
+      <c r="C159" s="48"/>
+      <c r="D159" s="43"/>
+      <c r="E159" s="83"/>
+      <c r="F159" s="31"/>
+      <c r="G159" s="62"/>
+      <c r="H159" s="60"/>
+      <c r="I159" s="55"/>
+      <c r="J159" s="32"/>
+    </row>
+    <row r="160" spans="2:10" s="35" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B160" s="36"/>
+      <c r="C160" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D152" s="37"/>
-      <c r="E152" s="37"/>
-      <c r="F152" s="37"/>
-      <c r="G152" s="66">
-        <f>SUM(G6:G151)</f>
-        <v>357</v>
-      </c>
-      <c r="H152" s="66">
-        <f>SUM(H6:H151)</f>
-        <v>246</v>
-      </c>
-      <c r="I152" s="53">
-        <f>SUM(I6:I151)</f>
-        <v>31.099999999999991</v>
-      </c>
-      <c r="J152" s="38"/>
+      <c r="D160" s="37"/>
+      <c r="E160" s="37"/>
+      <c r="F160" s="37"/>
+      <c r="G160" s="66">
+        <f>SUM(G6:G159)</f>
+        <v>374</v>
+      </c>
+      <c r="H160" s="66">
+        <f>SUM(H6:H159)</f>
+        <v>258</v>
+      </c>
+      <c r="I160" s="53">
+        <f>SUM(I6:I159)</f>
+        <v>32.699999999999989</v>
+      </c>
+      <c r="J160" s="38"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:K152" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:K152">
-      <sortCondition ref="D6:D152"/>
+  <autoFilter ref="A6:K160" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:K160">
+      <sortCondition ref="D6:D160"/>
     </sortState>
   </autoFilter>
   <mergeCells count="4">
